--- a/VerveStacks_AUS/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_AUS/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_AUS\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3486BB1A-78C4-471F-9FCC-82E54D58B2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DAEA33-62D8-40A3-8B44-23567D9D2169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_AUS/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
+++ b/VerveStacks_AUS/SubRES_Tmpl/SubRES_REZoning_Sol_Win_andHydro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_AUS\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DAEA33-62D8-40A3-8B44-23567D9D2169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C30404-DDF4-47F6-A285-D0F786218827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
